--- a/biology/Botanique/Araucaria_bidwillii/Araucaria_bidwillii.xlsx
+++ b/biology/Botanique/Araucaria_bidwillii/Araucaria_bidwillii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bunya-bunya (Araucaria bidwillii) est un conifère à feuillage persistant de la famille des Araucariaceae, endémique de l'est de l'Australie (sud-est du Queensland et nord-est de la Nouvelle-Galles du Sud). Il peut atteindre cinquante mètres de haut.
 Son nom vernaculaire provient de sa désignation en langue aborigène d'Australie. Quant à son nom scientifique, il le doit à William Jackson Hooker, qui le nomma en hommage à John Carne Bidwill.
-Édouard Heckel a fait introduire cette espèce à la Réunion à la fin du XIXe siècle, envoyant des spécimens au jardin botanique de Saint-Denis[1].
+Édouard Heckel a fait introduire cette espèce à la Réunion à la fin du XIXe siècle, envoyant des spécimens au jardin botanique de Saint-Denis.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Forêt d'Araucaria bidwillii, parc national des Monts Bunya, sud du Queensland.
